--- a/Calcutta Scores.xlsx
+++ b/Calcutta Scores.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mniels17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nielsen-laptop\Documents\git\track-ncaa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +302,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -611,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L67"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,14 +725,17 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4">
+        <v>87</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -848,14 +870,17 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
       <c r="I12">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -902,14 +927,17 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
+      <c r="C15">
+        <v>61</v>
+      </c>
       <c r="I15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -953,14 +981,20 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
       <c r="I18">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1024,14 +1058,17 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
+      <c r="C22">
+        <v>78</v>
+      </c>
       <c r="I22">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1061,14 +1098,17 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
+      <c r="C24">
+        <v>77</v>
+      </c>
       <c r="I24">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1118,14 +1158,17 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="C27">
+        <v>67</v>
+      </c>
       <c r="I27">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1206,14 +1249,20 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
+      <c r="C32">
+        <v>83</v>
+      </c>
       <c r="I32">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1277,14 +1326,17 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
+      <c r="C36">
+        <v>86</v>
+      </c>
       <c r="I36">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1425,14 +1477,20 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
       <c r="I44">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -1479,14 +1537,20 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
+      <c r="C47">
+        <v>65</v>
+      </c>
       <c r="I47">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -1530,14 +1594,20 @@
       <c r="B50" t="s">
         <v>59</v>
       </c>
+      <c r="C50">
+        <v>73</v>
+      </c>
       <c r="I50">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -1604,14 +1674,17 @@
       <c r="B54" t="s">
         <v>63</v>
       </c>
+      <c r="C54">
+        <v>89</v>
+      </c>
       <c r="I54">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -1644,14 +1717,20 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
+      <c r="C56">
+        <v>60</v>
+      </c>
       <c r="I56">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -1701,14 +1780,20 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
+      <c r="C59">
+        <v>47</v>
+      </c>
       <c r="I59">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -1792,14 +1877,20 @@
       <c r="B64" t="s">
         <v>73</v>
       </c>
+      <c r="C64">
+        <v>61</v>
+      </c>
       <c r="I64">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -1872,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">

--- a/Calcutta Scores.xlsx
+++ b/Calcutta Scores.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nielsen-laptop\Documents\git\track-ncaa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mniels17\git\track-ncaa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,26 +302,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -630,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,14 +780,17 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="C8">
+        <v>74</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -836,14 +820,17 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10">
+        <v>68</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -853,14 +840,17 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="C11">
+        <v>84</v>
+      </c>
       <c r="I11">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -947,14 +937,20 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
       <c r="I16">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1178,14 +1174,20 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
+      <c r="C28">
+        <v>62</v>
+      </c>
       <c r="I28">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1232,14 +1234,17 @@
       <c r="B31" t="s">
         <v>40</v>
       </c>
+      <c r="C31">
+        <v>73</v>
+      </c>
       <c r="I31">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1403,14 +1408,17 @@
       <c r="B40" t="s">
         <v>49</v>
       </c>
+      <c r="C40">
+        <v>79</v>
+      </c>
       <c r="I40">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -1460,14 +1468,20 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
+      <c r="C43">
+        <v>69</v>
+      </c>
       <c r="I43">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -1640,14 +1654,17 @@
       <c r="B52" t="s">
         <v>61</v>
       </c>
+      <c r="C52">
+        <v>81</v>
+      </c>
       <c r="I52">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -1803,14 +1820,20 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
+      <c r="C60">
+        <v>48</v>
+      </c>
       <c r="I60">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -1843,14 +1866,20 @@
       <c r="B62" t="s">
         <v>71</v>
       </c>
+      <c r="C62">
+        <v>53</v>
+      </c>
       <c r="I62">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -1860,14 +1889,20 @@
       <c r="B63" t="s">
         <v>72</v>
       </c>
+      <c r="C63">
+        <v>66</v>
+      </c>
       <c r="I63">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -1963,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">

--- a/Calcutta Scores.xlsx
+++ b/Calcutta Scores.xlsx
@@ -1020,14 +1020,17 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
+      <c r="C20">
+        <v>85</v>
+      </c>
       <c r="I20">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1217,14 +1220,17 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
+      <c r="C30">
+        <v>87</v>
+      </c>
       <c r="I30">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1451,14 +1457,20 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
+      <c r="C42">
+        <v>83</v>
+      </c>
       <c r="I42">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -1574,14 +1586,20 @@
       <c r="B48" t="s">
         <v>57</v>
       </c>
+      <c r="C48">
+        <v>68</v>
+      </c>
       <c r="I48">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -1998,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">

--- a/Calcutta Scores.xlsx
+++ b/Calcutta Scores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mniels17\git\track-ncaa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nielsen-laptop\Documents\git\track-ncaa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{B953E77F-5CD1-41DB-BF12-EDAAC4CC0792}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,11 +612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L67" sqref="L4:L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,14 +747,20 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -763,14 +770,17 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -880,14 +890,17 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
+      <c r="C13">
+        <v>82</v>
+      </c>
       <c r="I13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -960,14 +973,17 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
+      <c r="C17">
+        <v>62</v>
+      </c>
       <c r="I17">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1040,14 +1056,17 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
+      <c r="C21">
+        <v>79</v>
+      </c>
       <c r="I21">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1117,14 +1136,20 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
+      <c r="C25">
+        <v>52</v>
+      </c>
       <c r="I25">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1303,14 +1328,20 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
+      <c r="C34">
+        <v>59</v>
+      </c>
       <c r="I34">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1320,14 +1351,20 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
       <c r="I35">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1380,14 +1417,17 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
+      <c r="C38">
+        <v>69</v>
+      </c>
       <c r="I38">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1397,14 +1437,17 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
+      <c r="C39">
+        <v>67</v>
+      </c>
       <c r="I39">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -1526,14 +1569,17 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
+      <c r="C45">
+        <v>57</v>
+      </c>
       <c r="I45">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -1609,14 +1655,20 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
+      <c r="C49">
+        <v>68</v>
+      </c>
       <c r="I49">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -1692,14 +1744,20 @@
       <c r="B53" t="s">
         <v>62</v>
       </c>
+      <c r="C53">
+        <v>58</v>
+      </c>
       <c r="I53">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -1775,14 +1833,20 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
+      <c r="C57">
+        <v>78</v>
+      </c>
       <c r="I57">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -1976,14 +2040,17 @@
       <c r="B66" t="s">
         <v>75</v>
       </c>
+      <c r="C66">
+        <v>74</v>
+      </c>
       <c r="I66">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -1993,14 +2060,20 @@
       <c r="B67" t="s">
         <v>76</v>
       </c>
+      <c r="C67">
+        <v>83</v>
+      </c>
       <c r="I67">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -2016,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
